--- a/Saved_file/EM002/2026_09/sap_data.xlsx
+++ b/Saved_file/EM002/2026_09/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-09-01</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST5804</t>
+          <t>CUST9010</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18422485</v>
+        <v>15951304</v>
       </c>
       <c r="E2" t="n">
-        <v>3319954</v>
+        <v>2640704</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -551,20 +551,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST1437</t>
+          <t>CUST7893</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9320942</v>
+        <v>13774651</v>
       </c>
       <c r="E3" t="n">
-        <v>1857018</v>
+        <v>2211125</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-09-30</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST7180</t>
+          <t>CUST8569</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17108472</v>
+        <v>10624556</v>
       </c>
       <c r="E4" t="n">
-        <v>2834809</v>
+        <v>1346922</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST5281</t>
+          <t>CUST8826</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20542033</v>
+        <v>22158860</v>
       </c>
       <c r="E5" t="n">
-        <v>4098683</v>
+        <v>2240807</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST5281</t>
+          <t>CUST6722</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14831295</v>
+        <v>24756391</v>
       </c>
       <c r="E6" t="n">
-        <v>2812859</v>
+        <v>4948152</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST6063</t>
+          <t>CUST8569</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18162584</v>
+        <v>9808426</v>
       </c>
       <c r="E7" t="n">
-        <v>1957281</v>
+        <v>1357748</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-09-20</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST4960</t>
+          <t>CUST7211</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21753356</v>
+        <v>24747474</v>
       </c>
       <c r="E8" t="n">
-        <v>3159414</v>
+        <v>4369531</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-09-13</t>
+          <t>2026-09-26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST1437</t>
+          <t>CUST9744</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11674814</v>
+        <v>11107028</v>
       </c>
       <c r="E9" t="n">
-        <v>1435357</v>
+        <v>1595899</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST1807</t>
+          <t>CUST7893</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17188455</v>
+        <v>10382420</v>
       </c>
       <c r="E10" t="n">
-        <v>2153639</v>
+        <v>1562406</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -978,25 +978,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST3509</t>
+          <t>CUST1671</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9819597</v>
+        <v>14279334</v>
       </c>
       <c r="E11" t="n">
-        <v>1107617</v>
+        <v>1826269</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-09-08</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST1872</t>
+          <t>CUST6440</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11217759</v>
+        <v>9276955</v>
       </c>
       <c r="E12" t="n">
-        <v>2137189</v>
+        <v>1703541</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST1476</t>
+          <t>CUST7893</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11545624</v>
+        <v>21336115</v>
       </c>
       <c r="E13" t="n">
-        <v>2140435</v>
+        <v>3560841</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1123,12 +1123,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-09-29</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST1191</t>
+          <t>CUST2624</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21389397</v>
+        <v>21085295</v>
       </c>
       <c r="E14" t="n">
-        <v>3573516</v>
+        <v>3817498</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-09-06</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST4146</t>
+          <t>CUST9641</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22482209</v>
+        <v>23332339</v>
       </c>
       <c r="E15" t="n">
-        <v>2851600</v>
+        <v>4569383</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST5005</t>
+          <t>CUST8702</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>19951904</v>
+        <v>10459000</v>
       </c>
       <c r="E16" t="n">
-        <v>2869996</v>
+        <v>1088484</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>62</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1307,24 +1307,24 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST3158</t>
+          <t>CUST8390</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16052046</v>
+        <v>18248416</v>
       </c>
       <c r="E17" t="n">
-        <v>2632908</v>
+        <v>2204628</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-09-30</t>
+          <t>2026-09-20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST5502</t>
+          <t>CUST4296</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22006063</v>
+        <v>8736915</v>
       </c>
       <c r="E18" t="n">
-        <v>4285450</v>
+        <v>1445742</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST2751</t>
+          <t>CUST3378</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24833502</v>
+        <v>14221541</v>
       </c>
       <c r="E19" t="n">
-        <v>2609543</v>
+        <v>1985643</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST9161</t>
+          <t>CUST3914</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8668610</v>
+        <v>18679977</v>
       </c>
       <c r="E20" t="n">
-        <v>1008386</v>
+        <v>1949615</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-09-05</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST3158</t>
+          <t>CUST9744</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18779365</v>
+        <v>10115261</v>
       </c>
       <c r="E21" t="n">
-        <v>2972766</v>
+        <v>1975301</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST5804</t>
+          <t>CUST2624</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15861908</v>
+        <v>14514452</v>
       </c>
       <c r="E22" t="n">
-        <v>2663735</v>
+        <v>1452186</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST5502</t>
+          <t>CUST9744</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>21458565</v>
+        <v>14145675</v>
       </c>
       <c r="E23" t="n">
-        <v>3871460</v>
+        <v>2295241</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-09-28</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST8844</t>
+          <t>CUST7597</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>13257714</v>
+        <v>17105600</v>
       </c>
       <c r="E24" t="n">
-        <v>1749887</v>
+        <v>2692779</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST3509</t>
+          <t>CUST5018</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>21230747</v>
+        <v>24106004</v>
       </c>
       <c r="E25" t="n">
-        <v>2423261</v>
+        <v>4523309</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-09-06</t>
+          <t>2026-09-26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST4321</t>
+          <t>CUST4296</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>23609119</v>
+        <v>14883582</v>
       </c>
       <c r="E26" t="n">
-        <v>4510254</v>
+        <v>1740789</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST2229</t>
+          <t>CUST5724</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18423456</v>
+        <v>18767270</v>
       </c>
       <c r="E27" t="n">
-        <v>2230540</v>
+        <v>2043398</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-09-20</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST1215</t>
+          <t>CUST9166</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9030505</v>
+        <v>21625427</v>
       </c>
       <c r="E28" t="n">
-        <v>1319208</v>
+        <v>3125998</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-09-30</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST2777</t>
+          <t>CUST2335</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>19396258</v>
+        <v>11791031</v>
       </c>
       <c r="E29" t="n">
-        <v>2755454</v>
+        <v>1995450</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST3158</t>
+          <t>CUST8569</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12324695</v>
+        <v>19687796</v>
       </c>
       <c r="E30" t="n">
-        <v>1621907</v>
+        <v>2390372</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST4457</t>
+          <t>CUST7597</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15428841</v>
+        <v>8340730</v>
       </c>
       <c r="E31" t="n">
-        <v>2355715</v>
+        <v>1073998</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-09-05</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST6063</t>
+          <t>CUST3914</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9411646</v>
+        <v>17440132</v>
       </c>
       <c r="E32" t="n">
-        <v>1724787</v>
+        <v>2901612</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2149,12 +2149,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2166,25 +2166,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-09-08</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST5804</t>
+          <t>CUST3378</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8962114</v>
+        <v>11960861</v>
       </c>
       <c r="E33" t="n">
-        <v>1171774</v>
+        <v>1919341</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST7180</t>
+          <t>CUST5546</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20216084</v>
+        <v>8864516</v>
       </c>
       <c r="E34" t="n">
-        <v>3423863</v>
+        <v>1488163</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-19</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST7776</t>
+          <t>CUST4887</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8775524</v>
+        <v>22800283</v>
       </c>
       <c r="E35" t="n">
-        <v>974823</v>
+        <v>4104516</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-25</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST9424</t>
+          <t>CUST8702</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16573074</v>
+        <v>15432956</v>
       </c>
       <c r="E36" t="n">
-        <v>1923367</v>
+        <v>2938709</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST3645</t>
+          <t>CUST4296</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>14164816</v>
+        <v>14719530</v>
       </c>
       <c r="E37" t="n">
-        <v>2803820</v>
+        <v>2289597</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST7180</t>
+          <t>CUST1671</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>20444498</v>
+        <v>12630870</v>
       </c>
       <c r="E38" t="n">
-        <v>2925357</v>
+        <v>2491448</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST5281</t>
+          <t>CUST5469</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8264868</v>
+        <v>18900712</v>
       </c>
       <c r="E39" t="n">
-        <v>1269100</v>
+        <v>3520959</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-09-29</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST7180</t>
+          <t>CUST6722</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>17023618</v>
+        <v>15796672</v>
       </c>
       <c r="E40" t="n">
-        <v>2470854</v>
+        <v>2769335</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-09-21</t>
+          <t>2026-09-26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST3973</t>
+          <t>CUST6722</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>19972806</v>
+        <v>15320346</v>
       </c>
       <c r="E41" t="n">
-        <v>3913874</v>
+        <v>2042115</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-09-21</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST1872</t>
+          <t>CUST4296</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>15837732</v>
+        <v>15540641</v>
       </c>
       <c r="E42" t="n">
-        <v>2693766</v>
+        <v>1613070</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST4457</t>
+          <t>CUST5469</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23930527</v>
+        <v>22005694</v>
       </c>
       <c r="E43" t="n">
-        <v>3902747</v>
+        <v>2448895</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST5005</t>
+          <t>CUST9612</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>17645354</v>
+        <v>13533274</v>
       </c>
       <c r="E44" t="n">
-        <v>2818284</v>
+        <v>2294548</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST2229</t>
+          <t>CUST6961</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>20522898</v>
+        <v>22042842</v>
       </c>
       <c r="E45" t="n">
-        <v>2093929</v>
+        <v>4068144</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST1085</t>
+          <t>CUST7754</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>12587638</v>
+        <v>22732703</v>
       </c>
       <c r="E46" t="n">
-        <v>1368091</v>
+        <v>3839279</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-09-29</t>
+          <t>2026-09-25</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST7773</t>
+          <t>CUST7754</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>17646417</v>
+        <v>18784510</v>
       </c>
       <c r="E47" t="n">
-        <v>1990143</v>
+        <v>2809128</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2959,12 +2959,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-21</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST3973</t>
+          <t>CUST7124</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>19038061</v>
+        <v>16606139</v>
       </c>
       <c r="E48" t="n">
-        <v>2222177</v>
+        <v>1931457</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST3645</t>
+          <t>CUST2335</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>16707011</v>
+        <v>22801122</v>
       </c>
       <c r="E49" t="n">
-        <v>2371621</v>
+        <v>3302613</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,12 +3062,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-09-12</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST9425</t>
+          <t>CUST3292</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>17243068</v>
+        <v>10027337</v>
       </c>
       <c r="E50" t="n">
-        <v>2218521</v>
+        <v>1025188</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-09-13</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST7059</t>
+          <t>CUST8831</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>24087569</v>
+        <v>18807555</v>
       </c>
       <c r="E51" t="n">
-        <v>4504746</v>
+        <v>3384822</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-09-06</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST8844</t>
+          <t>CUST4887</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>18328076</v>
+        <v>22612454</v>
       </c>
       <c r="E52" t="n">
-        <v>2523497</v>
+        <v>3987624</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST1157</t>
+          <t>CUST6722</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14914411</v>
+        <v>10425402</v>
       </c>
       <c r="E53" t="n">
-        <v>1642990</v>
+        <v>1844191</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST5502</t>
+          <t>CUST8390</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>13984102</v>
+        <v>15216302</v>
       </c>
       <c r="E54" t="n">
-        <v>2061248</v>
+        <v>1881965</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST1215</t>
+          <t>CUST4639</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13643673</v>
+        <v>12550119</v>
       </c>
       <c r="E55" t="n">
-        <v>2172596</v>
+        <v>1774006</v>
       </c>
       <c r="F55" t="n">
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-09-05</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST5502</t>
+          <t>CUST5546</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>23534568</v>
+        <v>9163196</v>
       </c>
       <c r="E56" t="n">
-        <v>4628759</v>
+        <v>1174912</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,12 +3440,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST2229</t>
+          <t>CUST4639</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>13787309</v>
+        <v>22796311</v>
       </c>
       <c r="E57" t="n">
-        <v>2689641</v>
+        <v>4296475</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST9425</t>
+          <t>CUST7124</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>24119086</v>
+        <v>14379032</v>
       </c>
       <c r="E58" t="n">
-        <v>3878046</v>
+        <v>1614691</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3575,20 +3575,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST5543</t>
+          <t>CUST3456</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24894281</v>
+        <v>11798384</v>
       </c>
       <c r="E59" t="n">
-        <v>3900820</v>
+        <v>2115752</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-09-29</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST1125</t>
+          <t>CUST8573</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8363349</v>
+        <v>15538111</v>
       </c>
       <c r="E60" t="n">
-        <v>1654747</v>
+        <v>1774725</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-09-25</t>
+          <t>2026-09-27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST1215</t>
+          <t>CUST4887</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>22972125</v>
+        <v>14521890</v>
       </c>
       <c r="E61" t="n">
-        <v>4127430</v>
+        <v>2385802</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.2</v>
+        <v>79.3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>6120187</v>
+        <v>11708562</v>
       </c>
       <c r="E2" t="n">
-        <v>1677175</v>
+        <v>1965705</v>
       </c>
     </row>
     <row r="3">
@@ -3796,16 +3796,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.2</v>
+        <v>71</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3078439</v>
+        <v>3931411</v>
       </c>
       <c r="E3" t="n">
-        <v>507580</v>
+        <v>673726</v>
       </c>
     </row>
     <row r="4">
@@ -3815,16 +3815,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>70.8</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>4229980</v>
+        <v>12156157</v>
       </c>
       <c r="E4" t="n">
-        <v>792297</v>
+        <v>3427601</v>
       </c>
     </row>
     <row r="5">
@@ -3834,16 +3834,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>6585878</v>
+        <v>7796766</v>
       </c>
       <c r="E5" t="n">
-        <v>1459576</v>
+        <v>1034842</v>
       </c>
     </row>
     <row r="6">
@@ -3891,16 +3891,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>9862917</v>
+        <v>2105330</v>
       </c>
       <c r="E8" t="n">
-        <v>2165529</v>
+        <v>581987</v>
       </c>
     </row>
     <row r="9">
@@ -3910,16 +3910,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>11690147</v>
+        <v>9054227</v>
       </c>
       <c r="E9" t="n">
-        <v>1672182</v>
+        <v>2023698</v>
       </c>
     </row>
     <row r="10">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69.40000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>3260466</v>
+        <v>6033113</v>
       </c>
       <c r="E10" t="n">
-        <v>748956</v>
+        <v>753732</v>
       </c>
     </row>
     <row r="11">
@@ -3948,16 +3948,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.6</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>4868094</v>
+        <v>7342526</v>
       </c>
       <c r="E11" t="n">
-        <v>1237642</v>
+        <v>1668339</v>
       </c>
     </row>
     <row r="12">
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.2</v>
+        <v>77.2</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5329963</v>
+        <v>5795750</v>
       </c>
       <c r="E12" t="n">
-        <v>1197681</v>
+        <v>1462117</v>
       </c>
     </row>
     <row r="13">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>72.3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6490731</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1008793</v>
       </c>
     </row>
     <row r="15">
@@ -4024,16 +4024,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72.7</v>
+        <v>69</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>5546984</v>
+        <v>11023749</v>
       </c>
       <c r="E15" t="n">
-        <v>1025039</v>
+        <v>1147451</v>
       </c>
     </row>
     <row r="16">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.7</v>
+        <v>62.3</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>3439138</v>
+        <v>3395200</v>
       </c>
       <c r="E16" t="n">
-        <v>681210</v>
+        <v>622388</v>
       </c>
     </row>
     <row r="17">
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.90000000000001</v>
+        <v>61.5</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>10192053</v>
+        <v>1889618</v>
       </c>
       <c r="E17" t="n">
-        <v>1060847</v>
+        <v>356705</v>
       </c>
     </row>
     <row r="18">
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>67.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>10675350</v>
+        <v>5373409</v>
       </c>
       <c r="E18" t="n">
-        <v>1425009</v>
+        <v>1285638</v>
       </c>
     </row>
     <row r="19">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.7</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1864882</v>
+        <v>4576588</v>
       </c>
       <c r="E19" t="n">
-        <v>245415</v>
+        <v>1243253</v>
       </c>
     </row>
     <row r="20">
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>57.5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3474306</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>594900</v>
       </c>
     </row>
     <row r="22">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.8</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>3026367</v>
+        <v>2091688</v>
       </c>
       <c r="E22" t="n">
-        <v>856602</v>
+        <v>609658</v>
       </c>
     </row>
     <row r="23">
@@ -4176,16 +4176,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61.2</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>10479834</v>
+        <v>3264332</v>
       </c>
       <c r="E23" t="n">
-        <v>2741186</v>
+        <v>931190</v>
       </c>
     </row>
     <row r="24">
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>10491034</v>
+        <v>3374071</v>
       </c>
       <c r="E24" t="n">
-        <v>2139639</v>
+        <v>754163</v>
       </c>
     </row>
     <row r="25">
@@ -4214,16 +4214,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.8</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>4692548</v>
+        <v>7635008</v>
       </c>
       <c r="E25" t="n">
-        <v>936571</v>
+        <v>2047410</v>
       </c>
     </row>
     <row r="26">
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>5808073</v>
+        <v>3636203</v>
       </c>
       <c r="E26" t="n">
-        <v>1189695</v>
+        <v>701471</v>
       </c>
     </row>
     <row r="27">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.9</v>
+        <v>74.7</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>4204021</v>
+        <v>8532656</v>
       </c>
       <c r="E28" t="n">
-        <v>623684</v>
+        <v>1065582</v>
       </c>
     </row>
     <row r="29">
@@ -4290,16 +4290,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>77.8</v>
+        <v>76.3</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>14670117</v>
+        <v>5580252</v>
       </c>
       <c r="E29" t="n">
-        <v>3986384</v>
+        <v>727469</v>
       </c>
     </row>
     <row r="30">
@@ -4309,16 +4309,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>65.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>2548202</v>
+        <v>2203168</v>
       </c>
       <c r="E30" t="n">
-        <v>698162</v>
+        <v>387697</v>
       </c>
     </row>
     <row r="31">
@@ -4328,16 +4328,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.90000000000001</v>
+        <v>69.7</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>2298748</v>
+        <v>12720320</v>
       </c>
       <c r="E31" t="n">
-        <v>289084</v>
+        <v>2439972</v>
       </c>
     </row>
   </sheetData>
